--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>autoAllocate</t>
   </si>
@@ -51,31 +51,40 @@
     <t>serialNumber</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>John Fred</t>
+  </si>
+  <si>
+    <t>Firearm</t>
+  </si>
+  <si>
+    <t>dell pad</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Sativa</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>for work</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>mays.co</t>
-  </si>
-  <si>
     <t>Electronic Device</t>
   </si>
   <si>
-    <t>dell pad</t>
+    <t>Iphone</t>
   </si>
   <si>
     <t>Machine Gun</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>for work</t>
-  </si>
-  <si>
-    <t>ytytytyyy</t>
   </si>
   <si>
     <r>
@@ -165,6 +174,18 @@
       <t>Laptop</t>
     </r>
   </si>
+  <si>
+    <t>Hadid12</t>
+  </si>
+  <si>
+    <t>Ukbiased23</t>
+  </si>
+  <si>
+    <t>ank123</t>
+  </si>
+  <si>
+    <t>mare123</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +224,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -239,7 +267,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -534,30 +562,30 @@
         <v>18</v>
       </c>
       <c r="I2" s="5">
-        <v>45628</v>
-      </c>
-      <c r="J2" s="2">
-        <v>6881093</v>
+        <v>45406</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -569,13 +597,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="5">
-        <v>45628</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1178119955</v>
+        <v>45406</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -614,19 +642,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$I$3:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A3 A4:A1048576</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$4:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2 C3 C4:C1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E3 E4:E1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -650,34 +678,34 @@
   <sheetData>
     <row r="3" spans="1:9" ht="13.5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13610" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>autoAllocate</t>
   </si>
@@ -51,31 +51,40 @@
     <t>serialNumber</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>John Fred</t>
+  </si>
+  <si>
+    <t>Firearm</t>
+  </si>
+  <si>
+    <t>dell pad</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Sativa</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>for work</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>mays.co</t>
-  </si>
-  <si>
     <t>Electronic Device</t>
   </si>
   <si>
-    <t>dell pad</t>
+    <t>Iphone</t>
   </si>
   <si>
     <t>Machine Gun</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>for work</t>
-  </si>
-  <si>
-    <t>ytytytyyy</t>
   </si>
   <si>
     <r>
@@ -165,15 +174,27 @@
       <t>Laptop</t>
     </r>
   </si>
+  <si>
+    <t>mare12355</t>
+  </si>
+  <si>
+    <t>Hadid1259</t>
+  </si>
+  <si>
+    <t>Ukbiased23550</t>
+  </si>
+  <si>
+    <t>ank123559</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +224,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -239,7 +267,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +489,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -534,30 +562,30 @@
         <v>18</v>
       </c>
       <c r="I2" s="5">
-        <v>45628</v>
-      </c>
-      <c r="J2" s="2">
-        <v>6881093</v>
+        <v>45467</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -569,13 +597,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="5">
-        <v>45628</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1178119955</v>
+        <v>45467</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -614,19 +642,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$I$3:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A3 A4:A1048576</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$4:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2 C3 C4:C1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E3 E4:E1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -650,34 +678,34 @@
   <sheetData>
     <row r="3" spans="1:9" ht="13.5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>autoAllocate</t>
   </si>
@@ -55,18 +51,9 @@
     <t>serialNumber</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Electronic Device</t>
-  </si>
-  <si>
     <t>dell pad</t>
   </si>
   <si>
-    <t>Machine Gun</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -76,9 +63,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>John Fred</t>
-  </si>
-  <si>
     <t>Firearm</t>
   </si>
   <si>
@@ -88,19 +72,13 @@
     <t>Sativa</t>
   </si>
   <si>
-    <t>Hadid1259</t>
-  </si>
-  <si>
-    <t>ank123559</t>
-  </si>
-  <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>Ukbiased23550</t>
-  </si>
-  <si>
-    <t>mare12355</t>
+    <t>Kimkar</t>
+  </si>
+  <si>
+    <t>Hadidaa105991</t>
+  </si>
+  <si>
+    <t>ankian12301591</t>
   </si>
 </sst>
 </file>
@@ -404,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -454,73 +432,51 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="5">
         <v>45467</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45467</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -556,19 +512,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Worksheet in main]Sheet2'!#REF!</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Worksheet in main]Sheet2'!#REF!</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Worksheet in main]Sheet2'!#REF!</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -583,7 +539,7 @@
   <dimension ref="A3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:I17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>autoAllocate</t>
   </si>
@@ -51,146 +51,40 @@
     <t>serialNumber</t>
   </si>
   <si>
+    <t>dell pad</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>for work</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>John Fred</t>
-  </si>
-  <si>
     <t>Firearm</t>
   </si>
   <si>
-    <t>dell pad</t>
-  </si>
-  <si>
     <t>Pistol</t>
   </si>
   <si>
     <t>Sativa</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>for work</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Electronic Device</t>
-  </si>
-  <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>Machine Gun</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pistol</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>yes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Machine Gun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Firearm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>no</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Doubel Barrel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Electronic Device</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Laptop</t>
-    </r>
-  </si>
-  <si>
-    <t>Hadid12</t>
-  </si>
-  <si>
-    <t>Ukbiased23</t>
-  </si>
-  <si>
-    <t>ank123</t>
-  </si>
-  <si>
-    <t>mare123</t>
+    <t>Kimkar</t>
+  </si>
+  <si>
+    <t>Hadidaa105991</t>
+  </si>
+  <si>
+    <t>ankian12301591</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -488,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -538,73 +432,51 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="5">
-        <v>45406</v>
+        <v>45467</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45406</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -640,21 +512,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$I$3:$I$4</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$C$4:$C$5</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$A$3:$A$6</xm:f>
+            <xm:f>Sheet2!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -667,7 +539,7 @@
   <dimension ref="A3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -677,36 +549,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="13.5">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="13.5">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="13.5">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>Kimkar</t>
   </si>
   <si>
-    <t>Hadidaa105991</t>
-  </si>
-  <si>
-    <t>ankian12301591</t>
+    <t>katronke105991</t>
+  </si>
+  <si>
+    <t>Killadi12301591</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -393,6 +393,7 @@
     <col min="5" max="5" width="14.6328125" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,16 +69,16 @@
     <t>Pistol</t>
   </si>
   <si>
-    <t>Sativa</t>
-  </si>
-  <si>
-    <t>Kimkar</t>
-  </si>
-  <si>
-    <t>katronke105991</t>
-  </si>
-  <si>
-    <t>Killadi12301591</t>
+    <t>Lippa</t>
+  </si>
+  <si>
+    <t>Vatika</t>
+  </si>
+  <si>
+    <t>katronke107512202</t>
+  </si>
+  <si>
+    <t>Killadi17621202021</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -394,6 +394,7 @@
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">
@@ -436,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -448,7 +449,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -75,10 +75,10 @@
     <t>Vatika</t>
   </si>
   <si>
-    <t>katronke107512202</t>
-  </si>
-  <si>
-    <t>Killadi17621202021</t>
+    <t>katronkeee107512202</t>
+  </si>
+  <si>
+    <t>Killadiss17621202021</t>
   </si>
 </sst>
 </file>
@@ -382,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -394,7 +394,7 @@
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="20.54296875" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13">
@@ -458,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="5">
-        <v>45467</v>
+        <v>45559</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>

--- a/Auto-IT/bulk_equipments.xlsx
+++ b/Auto-IT/bulk_equipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13340" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,22 @@
     <t>Pistol</t>
   </si>
   <si>
-    <t>Lippa</t>
+    <t>Lippa pvt ltd</t>
   </si>
   <si>
     <t>Vatika</t>
   </si>
   <si>
-    <t>katronkeee107512202</t>
-  </si>
-  <si>
-    <t>Killadiss17621202021</t>
+    <t>Arnavi746017</t>
+  </si>
+  <si>
+    <t>Libora543453017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -380,10 +380,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -506,6 +506,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
